--- a/data.xlsx
+++ b/data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         <v>80</v>
       </c>
       <c r="B4" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -463,39 +463,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>40</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
